--- a/xlsx/country_comparison/split_few_bars_nb0.xlsx
+++ b/xlsx/country_comparison/split_few_bars_nb0.xlsx
@@ -443,7 +443,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.173681534946526</v>
+        <v>0.171928023880523</v>
       </c>
       <c r="C2" t="n">
         <v>0.20842441960282</v>
@@ -452,13 +452,13 @@
         <v>0.139383202317935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.17148204485266</v>
+        <v>0.171539197744222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.185227405337467</v>
+        <v>0.186233012028601</v>
       </c>
       <c r="G2" t="n">
-        <v>0.209586409448363</v>
+        <v>0.208844739249082</v>
       </c>
       <c r="H2" t="n">
         <v>0.19282185646026</v>
@@ -467,16 +467,16 @@
         <v>0.189199955630641</v>
       </c>
       <c r="J2" t="n">
-        <v>0.198911479186745</v>
+        <v>0.199024411761846</v>
       </c>
       <c r="K2" t="n">
         <v>0.164308597337644</v>
       </c>
       <c r="L2" t="n">
-        <v>0.188751389896951</v>
+        <v>0.188866428447973</v>
       </c>
       <c r="M2" t="n">
-        <v>0.176295689932363</v>
+        <v>0.175561545923922</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.207119648834499</v>
+        <v>0.208082071678247</v>
       </c>
       <c r="C3" t="n">
         <v>0.179260954532991</v>
@@ -493,13 +493,13 @@
         <v>0.168916609020738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.148515407240951</v>
+        <v>0.148553172000759</v>
       </c>
       <c r="F3" t="n">
-        <v>0.163412399080557</v>
+        <v>0.163319488817591</v>
       </c>
       <c r="G3" t="n">
-        <v>0.151796931788349</v>
+        <v>0.152215561973779</v>
       </c>
       <c r="H3" t="n">
         <v>0.175121677989102</v>
@@ -508,16 +508,16 @@
         <v>0.173837147710191</v>
       </c>
       <c r="J3" t="n">
-        <v>0.156009206826951</v>
+        <v>0.155249115880568</v>
       </c>
       <c r="K3" t="n">
         <v>0.21141671944086</v>
       </c>
       <c r="L3" t="n">
-        <v>0.171434308535186</v>
+        <v>0.17129230704563</v>
       </c>
       <c r="M3" t="n">
-        <v>0.184180488247908</v>
+        <v>0.185448207602416</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.199997443942245</v>
+        <v>0.198974790319708</v>
       </c>
       <c r="C4" t="n">
         <v>0.186709739894734</v>
@@ -534,13 +534,13 @@
         <v>0.258070204215776</v>
       </c>
       <c r="E4" t="n">
-        <v>0.238726401323696</v>
+        <v>0.238731905577635</v>
       </c>
       <c r="F4" t="n">
-        <v>0.14753701232253</v>
+        <v>0.147562200454454</v>
       </c>
       <c r="G4" t="n">
-        <v>0.133127949837613</v>
+        <v>0.133297301098194</v>
       </c>
       <c r="H4" t="n">
         <v>0.18175262052129</v>
@@ -549,16 +549,16 @@
         <v>0.196946839753012</v>
       </c>
       <c r="J4" t="n">
-        <v>0.183681299119071</v>
+        <v>0.184584763740643</v>
       </c>
       <c r="K4" t="n">
         <v>0.158346125600463</v>
       </c>
       <c r="L4" t="n">
-        <v>0.169042759963006</v>
+        <v>0.169255556484414</v>
       </c>
       <c r="M4" t="n">
-        <v>0.194744912688251</v>
+        <v>0.194650521577828</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.191524841083133</v>
+        <v>0.190416465952656</v>
       </c>
       <c r="C5" t="n">
         <v>0.189598690462829</v>
@@ -575,13 +575,13 @@
         <v>0.187696518771781</v>
       </c>
       <c r="E5" t="n">
-        <v>0.184578681030052</v>
+        <v>0.184341386278865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.200735877838869</v>
+        <v>0.199942931850053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.188092311110144</v>
+        <v>0.18774315861641</v>
       </c>
       <c r="H5" t="n">
         <v>0.179997834300549</v>
@@ -590,16 +590,16 @@
         <v>0.172430422649016</v>
       </c>
       <c r="J5" t="n">
-        <v>0.175290012427002</v>
+        <v>0.175257793030651</v>
       </c>
       <c r="K5" t="n">
         <v>0.177941554475093</v>
       </c>
       <c r="L5" t="n">
-        <v>0.182317775771201</v>
+        <v>0.182123385872665</v>
       </c>
       <c r="M5" t="n">
-        <v>0.186734889070384</v>
+        <v>0.186421338534421</v>
       </c>
     </row>
     <row r="6">
@@ -607,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.227676531193597</v>
+        <v>0.230598648168866</v>
       </c>
       <c r="C6" t="n">
         <v>0.236006195506625</v>
@@ -616,13 +616,13 @@
         <v>0.24593346567377</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25669746555264</v>
+        <v>0.256834338398519</v>
       </c>
       <c r="F6" t="n">
-        <v>0.303087305420576</v>
+        <v>0.302942366849302</v>
       </c>
       <c r="G6" t="n">
-        <v>0.317396397815531</v>
+        <v>0.317899239062535</v>
       </c>
       <c r="H6" t="n">
         <v>0.270306010728799</v>
@@ -631,16 +631,16 @@
         <v>0.26758563425714</v>
       </c>
       <c r="J6" t="n">
-        <v>0.286108002440231</v>
+        <v>0.285883915586291</v>
       </c>
       <c r="K6" t="n">
         <v>0.287987003145941</v>
       </c>
       <c r="L6" t="n">
-        <v>0.288453765833657</v>
+        <v>0.288462322149318</v>
       </c>
       <c r="M6" t="n">
-        <v>0.258044020061094</v>
+        <v>0.257918386361413</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_few_bars_nb0.xlsx
+++ b/xlsx/country_comparison/split_few_bars_nb0.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
+    <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Global: Education, Healthcare and Renewable energy in low-income countries</t>
@@ -443,40 +443,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.171928023880523</v>
+        <v>0.176295689932363</v>
       </c>
       <c r="C2" t="n">
+        <v>0.188751389896951</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.164308597337644</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.198911479186745</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.189199955630641</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.19282185646026</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.209586409448363</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.185227405337467</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.17148204485266</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.139383202317935</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.20842441960282</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.139383202317935</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.171539197744222</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.186233012028601</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.208844739249082</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.19282185646026</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.189199955630641</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.199024411761846</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.164308597337644</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.188866428447973</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.175561545923922</v>
+        <v>0.173681534946526</v>
       </c>
     </row>
     <row r="3">
@@ -484,40 +484,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.208082071678247</v>
+        <v>0.184180488247908</v>
       </c>
       <c r="C3" t="n">
+        <v>0.171434308535186</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21141671944086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.156009206826951</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.173837147710191</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.175121677989102</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.151796931788349</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.163412399080557</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.148515407240951</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.168916609020738</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.179260954532991</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.168916609020738</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.148553172000759</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.163319488817591</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.152215561973779</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.175121677989102</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.173837147710191</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.155249115880568</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.21141671944086</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.17129230704563</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.185448207602416</v>
+        <v>0.207119648834499</v>
       </c>
     </row>
     <row r="4">
@@ -525,40 +525,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198974790319708</v>
+        <v>0.194744912688251</v>
       </c>
       <c r="C4" t="n">
+        <v>0.169042759963006</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.158346125600463</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.183681299119071</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.196946839753012</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.18175262052129</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.133127949837613</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.14753701232253</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.238726401323696</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.258070204215776</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.186709739894734</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.258070204215776</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.238731905577635</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.147562200454454</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.133297301098194</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.18175262052129</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.196946839753012</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.184584763740643</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.158346125600463</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.169255556484414</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.194650521577828</v>
+        <v>0.199997443942245</v>
       </c>
     </row>
     <row r="5">
@@ -566,40 +566,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190416465952656</v>
+        <v>0.186734889070384</v>
       </c>
       <c r="C5" t="n">
+        <v>0.182317775771201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.177941554475093</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.175290012427002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.172430422649016</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.179997834300549</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.188092311110144</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.200735877838869</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.184578681030052</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.187696518771781</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.189598690462829</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.187696518771781</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.184341386278865</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.199942931850053</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.18774315861641</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.179997834300549</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.172430422649016</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.175257793030651</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.177941554475093</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.182123385872665</v>
-      </c>
       <c r="M5" t="n">
-        <v>0.186421338534421</v>
+        <v>0.191524841083133</v>
       </c>
     </row>
     <row r="6">
@@ -607,40 +607,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.230598648168866</v>
+        <v>0.258044020061094</v>
       </c>
       <c r="C6" t="n">
+        <v>0.288453765833657</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.287987003145941</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.286108002440231</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.26758563425714</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.270306010728799</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.317396397815531</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.303087305420576</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.25669746555264</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.24593346567377</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.236006195506625</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.24593346567377</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.256834338398519</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.302942366849302</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.317899239062535</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.270306010728799</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.26758563425714</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.285883915586291</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.287987003145941</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.288462322149318</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.257918386361413</v>
+        <v>0.227676531193597</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_few_bars_nb0.xlsx
+++ b/xlsx/country_comparison/split_few_bars_nb0.xlsx
@@ -443,40 +443,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.176295689932363</v>
+        <v>0.172470024408129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188751389896951</v>
+        <v>0.208838632887555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164308597337644</v>
+        <v>0.138825849677504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.198911479186745</v>
+        <v>0.167987779391435</v>
       </c>
       <c r="F2" t="n">
-        <v>0.189199955630641</v>
+        <v>0.185494131603014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.19282185646026</v>
+        <v>0.205829003918453</v>
       </c>
       <c r="H2" t="n">
-        <v>0.209586409448363</v>
+        <v>0.192787471376058</v>
       </c>
       <c r="I2" t="n">
-        <v>0.185227405337467</v>
+        <v>0.189845262219049</v>
       </c>
       <c r="J2" t="n">
-        <v>0.17148204485266</v>
+        <v>0.191089043837425</v>
       </c>
       <c r="K2" t="n">
-        <v>0.139383202317935</v>
+        <v>0.165476971257286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.20842441960282</v>
+        <v>0.186743117629875</v>
       </c>
       <c r="M2" t="n">
-        <v>0.173681534946526</v>
+        <v>0.174751101420005</v>
       </c>
     </row>
     <row r="3">
@@ -484,40 +484,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.184180488247908</v>
+        <v>0.209313258947167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.171434308535186</v>
+        <v>0.178857494432493</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21141671944086</v>
+        <v>0.169553778137859</v>
       </c>
       <c r="E3" t="n">
-        <v>0.156009206826951</v>
+        <v>0.152556377454068</v>
       </c>
       <c r="F3" t="n">
-        <v>0.173837147710191</v>
+        <v>0.163309820421065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.175121677989102</v>
+        <v>0.155268136398726</v>
       </c>
       <c r="H3" t="n">
-        <v>0.151796931788349</v>
+        <v>0.17090174523544</v>
       </c>
       <c r="I3" t="n">
-        <v>0.163412399080557</v>
+        <v>0.173961814831011</v>
       </c>
       <c r="J3" t="n">
-        <v>0.148515407240951</v>
+        <v>0.160519106477522</v>
       </c>
       <c r="K3" t="n">
-        <v>0.168916609020738</v>
+        <v>0.214866766914359</v>
       </c>
       <c r="L3" t="n">
-        <v>0.179260954532991</v>
+        <v>0.173252977992075</v>
       </c>
       <c r="M3" t="n">
-        <v>0.207119648834499</v>
+        <v>0.186865085699013</v>
       </c>
     </row>
     <row r="4">
@@ -525,40 +525,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.194744912688251</v>
+        <v>0.198873502462374</v>
       </c>
       <c r="C4" t="n">
-        <v>0.169042759963006</v>
+        <v>0.187422136325044</v>
       </c>
       <c r="D4" t="n">
-        <v>0.158346125600463</v>
+        <v>0.254502073901837</v>
       </c>
       <c r="E4" t="n">
-        <v>0.183681299119071</v>
+        <v>0.229368463129356</v>
       </c>
       <c r="F4" t="n">
-        <v>0.196946839753012</v>
+        <v>0.151047942601592</v>
       </c>
       <c r="G4" t="n">
-        <v>0.18175262052129</v>
+        <v>0.134044243090002</v>
       </c>
       <c r="H4" t="n">
-        <v>0.133127949837613</v>
+        <v>0.18332541903325</v>
       </c>
       <c r="I4" t="n">
-        <v>0.14753701232253</v>
+        <v>0.196203362615063</v>
       </c>
       <c r="J4" t="n">
-        <v>0.238726401323696</v>
+        <v>0.194278740385234</v>
       </c>
       <c r="K4" t="n">
-        <v>0.258070204215776</v>
+        <v>0.159339729527023</v>
       </c>
       <c r="L4" t="n">
-        <v>0.186709739894734</v>
+        <v>0.172225724616136</v>
       </c>
       <c r="M4" t="n">
-        <v>0.199997443942245</v>
+        <v>0.195461858933732</v>
       </c>
     </row>
     <row r="5">
@@ -566,40 +566,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186734889070384</v>
+        <v>0.187207553476592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.182317775771201</v>
+        <v>0.188547853061829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.177941554475093</v>
+        <v>0.187697265285293</v>
       </c>
       <c r="E5" t="n">
-        <v>0.175290012427002</v>
+        <v>0.179471725808097</v>
       </c>
       <c r="F5" t="n">
-        <v>0.172430422649016</v>
+        <v>0.197872971857196</v>
       </c>
       <c r="G5" t="n">
-        <v>0.179997834300549</v>
+        <v>0.186471507063988</v>
       </c>
       <c r="H5" t="n">
-        <v>0.188092311110144</v>
+        <v>0.182712952599208</v>
       </c>
       <c r="I5" t="n">
-        <v>0.200735877838869</v>
+        <v>0.172709605222789</v>
       </c>
       <c r="J5" t="n">
-        <v>0.184578681030052</v>
+        <v>0.172959318164563</v>
       </c>
       <c r="K5" t="n">
-        <v>0.187696518771781</v>
+        <v>0.177270409986073</v>
       </c>
       <c r="L5" t="n">
-        <v>0.189598690462829</v>
+        <v>0.181090533883872</v>
       </c>
       <c r="M5" t="n">
-        <v>0.191524841083133</v>
+        <v>0.184711140395028</v>
       </c>
     </row>
     <row r="6">
@@ -607,40 +607,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258044020061094</v>
+        <v>0.232135660705738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.288453765833657</v>
+        <v>0.236333883293078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.287987003145941</v>
+        <v>0.249421032997506</v>
       </c>
       <c r="E6" t="n">
-        <v>0.286108002440231</v>
+        <v>0.270615654217044</v>
       </c>
       <c r="F6" t="n">
-        <v>0.26758563425714</v>
+        <v>0.302275133517133</v>
       </c>
       <c r="G6" t="n">
-        <v>0.270306010728799</v>
+        <v>0.318387109528831</v>
       </c>
       <c r="H6" t="n">
-        <v>0.317396397815531</v>
+        <v>0.270272411756045</v>
       </c>
       <c r="I6" t="n">
-        <v>0.303087305420576</v>
+        <v>0.267279955112089</v>
       </c>
       <c r="J6" t="n">
-        <v>0.25669746555264</v>
+        <v>0.281153791135256</v>
       </c>
       <c r="K6" t="n">
-        <v>0.24593346567377</v>
+        <v>0.28304612231526</v>
       </c>
       <c r="L6" t="n">
-        <v>0.236006195506625</v>
+        <v>0.286687645878041</v>
       </c>
       <c r="M6" t="n">
-        <v>0.227676531193597</v>
+        <v>0.258210813552222</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_few_bars_nb0.xlsx
+++ b/xlsx/country_comparison/split_few_bars_nb0.xlsx
@@ -607,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232135660705738</v>
+        <v>0.232135660705739</v>
       </c>
       <c r="C6" t="n">
         <v>0.236333883293078</v>

--- a/xlsx/country_comparison/split_few_bars_nb0.xlsx
+++ b/xlsx/country_comparison/split_few_bars_nb0.xlsx
@@ -443,13 +443,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.172470024408129</v>
+        <v>0.172543292244347</v>
       </c>
       <c r="C2" t="n">
         <v>0.208838632887555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.138825849677504</v>
+        <v>0.138840103970168</v>
       </c>
       <c r="E2" t="n">
         <v>0.167987779391435</v>
@@ -476,7 +476,7 @@
         <v>0.186743117629875</v>
       </c>
       <c r="M2" t="n">
-        <v>0.174751101420005</v>
+        <v>0.174778628081766</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.209313258947167</v>
+        <v>0.20922419214653</v>
       </c>
       <c r="C3" t="n">
         <v>0.178857494432493</v>
       </c>
       <c r="D3" t="n">
-        <v>0.169553778137859</v>
+        <v>0.169560940391051</v>
       </c>
       <c r="E3" t="n">
         <v>0.152556377454068</v>
@@ -517,7 +517,7 @@
         <v>0.173252977992075</v>
       </c>
       <c r="M3" t="n">
-        <v>0.186865085699013</v>
+        <v>0.186864511804753</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198873502462374</v>
+        <v>0.198876819805837</v>
       </c>
       <c r="C4" t="n">
         <v>0.187422136325044</v>
       </c>
       <c r="D4" t="n">
-        <v>0.254502073901837</v>
+        <v>0.254402568967971</v>
       </c>
       <c r="E4" t="n">
         <v>0.229368463129356</v>
@@ -558,7 +558,7 @@
         <v>0.172225724616136</v>
       </c>
       <c r="M4" t="n">
-        <v>0.195461858933732</v>
+        <v>0.195452760393505</v>
       </c>
     </row>
     <row r="5">
@@ -566,13 +566,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.187207553476592</v>
+        <v>0.187225256109629</v>
       </c>
       <c r="C5" t="n">
         <v>0.188547853061829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.187697265285293</v>
+        <v>0.187734829873696</v>
       </c>
       <c r="E5" t="n">
         <v>0.179471725808097</v>
@@ -599,7 +599,7 @@
         <v>0.181090533883872</v>
       </c>
       <c r="M5" t="n">
-        <v>0.184711140395028</v>
+        <v>0.184727295355144</v>
       </c>
     </row>
     <row r="6">
@@ -607,13 +607,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232135660705739</v>
+        <v>0.232130439693656</v>
       </c>
       <c r="C6" t="n">
         <v>0.236333883293078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.249421032997506</v>
+        <v>0.249461556797114</v>
       </c>
       <c r="E6" t="n">
         <v>0.270615654217044</v>
@@ -640,7 +640,7 @@
         <v>0.286687645878041</v>
       </c>
       <c r="M6" t="n">
-        <v>0.258210813552222</v>
+        <v>0.258176804364833</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_few_bars_nb0.xlsx
+++ b/xlsx/country_comparison/split_few_bars_nb0.xlsx
@@ -445,8 +445,8 @@
       <c r="B2" t="n">
         <v>0.172543292244347</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.208838632887555</v>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D2" t="n">
         <v>0.138840103970168</v>
@@ -486,8 +486,8 @@
       <c r="B3" t="n">
         <v>0.20922419214653</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.178857494432493</v>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
         <v>0.169560940391051</v>
@@ -527,8 +527,8 @@
       <c r="B4" t="n">
         <v>0.198876819805837</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.187422136325044</v>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D4" t="n">
         <v>0.254402568967971</v>
@@ -568,8 +568,8 @@
       <c r="B5" t="n">
         <v>0.187225256109629</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.188547853061829</v>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D5" t="n">
         <v>0.187734829873696</v>
@@ -609,8 +609,8 @@
       <c r="B6" t="n">
         <v>0.232130439693656</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.236333883293078</v>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="D6" t="n">
         <v>0.249461556797114</v>

--- a/xlsx/country_comparison/split_few_bars_nb0.xlsx
+++ b/xlsx/country_comparison/split_few_bars_nb0.xlsx
@@ -445,8 +445,8 @@
       <c r="B2" t="n">
         <v>0.172543292244347</v>
       </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
+      <c r="C2" t="n">
+        <v>0.208838632887556</v>
       </c>
       <c r="D2" t="n">
         <v>0.138840103970168</v>
@@ -486,8 +486,8 @@
       <c r="B3" t="n">
         <v>0.20922419214653</v>
       </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
+      <c r="C3" t="n">
+        <v>0.178857494432493</v>
       </c>
       <c r="D3" t="n">
         <v>0.169560940391051</v>
@@ -527,8 +527,8 @@
       <c r="B4" t="n">
         <v>0.198876819805837</v>
       </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
+      <c r="C4" t="n">
+        <v>0.187422136325044</v>
       </c>
       <c r="D4" t="n">
         <v>0.254402568967971</v>
@@ -568,8 +568,8 @@
       <c r="B5" t="n">
         <v>0.187225256109629</v>
       </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
+      <c r="C5" t="n">
+        <v>0.188547853061829</v>
       </c>
       <c r="D5" t="n">
         <v>0.187734829873696</v>
@@ -609,8 +609,8 @@
       <c r="B6" t="n">
         <v>0.232130439693656</v>
       </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
+      <c r="C6" t="n">
+        <v>0.236333883293078</v>
       </c>
       <c r="D6" t="n">
         <v>0.249461556797114</v>
